--- a/IT系统后阶段开发时间计划表-v10.xlsx
+++ b/IT系统后阶段开发时间计划表-v10.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>里程碑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4个字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">   </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,6 +190,18 @@
   </si>
   <si>
     <t>bug修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于4个字段的相关改动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张顺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -395,6 +403,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -405,15 +452,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -422,12 +460,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -437,29 +469,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,7 +764,7 @@
   <dimension ref="B1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -779,47 +796,47 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="25"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="29" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
@@ -838,119 +855,123 @@
       <c r="K4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="30"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="18"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>24</v>
+      <c r="E5" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="19">
+      <c r="I5" s="12">
         <v>42770</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="28">
         <f>$I5+$K5</f>
         <v>42772</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="9">
         <v>2</v>
       </c>
-      <c r="L5" s="15"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="6" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="18"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="16"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="18"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="16"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="18"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="17"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="27"/>
     </row>
     <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="18"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="13"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="18"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="13"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="10"/>
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="18"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
@@ -958,15 +979,15 @@
         <v>37</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="13"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="10"/>
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="18"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="7" t="s">
         <v>23</v>
       </c>
@@ -974,214 +995,214 @@
         <v>37</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="13"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="10"/>
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="18"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="14"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="11"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>40</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="19">
+      <c r="I14" s="12">
         <f>$J5+$K14</f>
         <v>42773</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="12">
         <f>$I14+$K14</f>
         <v>42774</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="9">
         <v>1</v>
       </c>
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="18"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="18"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="18"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="18"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="3:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="18"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="18"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="3:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="18"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="18" t="s">
-        <v>41</v>
+      <c r="C18" s="15"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="19">
+      <c r="I18" s="12">
         <f>$J14+$K14</f>
         <v>42775</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="13">
         <f>I18+K18</f>
         <v>42777</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="9">
         <v>2</v>
       </c>
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="3:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="18"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="18"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="13"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="10"/>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="3:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="18"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="18"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="14"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="3:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="18"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="18" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="19">
+      <c r="I21" s="12">
         <f>$J18+$K18</f>
         <v>42779</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="13">
         <f>I21+K21</f>
         <v>42782</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="9">
         <v>3</v>
       </c>
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="3:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="18"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="18"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="13"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="10"/>
       <c r="L22" s="8"/>
     </row>
     <row r="23" spans="3:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="18"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="18"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="14"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="8"/>
     </row>
     <row r="24" spans="3:12" s="6" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="11"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="24"/>
     </row>
     <row r="25" spans="3:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25"/>
@@ -1285,7 +1306,7 @@
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
@@ -1560,20 +1581,6 @@
     <row r="56" spans="3:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="D14:D23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="C24:L24"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="D9:D13"/>
@@ -1590,6 +1597,20 @@
     <mergeCell ref="J18:J20"/>
     <mergeCell ref="K14:K17"/>
     <mergeCell ref="K18:K20"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="D14:D23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
